--- a/data/trans_camb/Hacinamiento_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/Hacinamiento_R-Provincia-trans_camb.xlsx
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 9,14</t>
+          <t>0,02; 8,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,19; -1,71</t>
+          <t>-7,14; -1,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,18; 9,1</t>
+          <t>1,17; 9,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 3,71</t>
+          <t>-2,78; 4,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,8; 7,82</t>
+          <t>1,83; 7,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 0,51</t>
+          <t>-4,03; 0,55</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 396,77</t>
+          <t>-7,87; 361,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-97,79; -73,51</t>
+          <t>-97,99; -73,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,27; 683,3</t>
+          <t>7,12; 608,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-74,16; 280,79</t>
+          <t>-66,74; 367,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,67; 324,66</t>
+          <t>34,06; 353,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-81,2; 37,79</t>
+          <t>-81,87; 46,84</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 4,57</t>
+          <t>-1,54; 4,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 4,29</t>
+          <t>-1,83; 4,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 2,47</t>
+          <t>-3,94; 2,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 0,29</t>
+          <t>-5,89; 0,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 1,95</t>
+          <t>-4,66; 1,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,83; -2,01</t>
+          <t>-7,78; -2,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 1,73</t>
+          <t>-2,85; 1,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 2,34</t>
+          <t>-2,21; 2,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,96; -0,61</t>
+          <t>-5,22; -0,98</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-29,05; 110,35</t>
+          <t>-24,33; 109,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-27,89; 100,13</t>
+          <t>-25,54; 110,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-59,23; 59,74</t>
+          <t>-56,93; 55,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-57,38; 7,44</t>
+          <t>-58,81; 5,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-47,97; 34,33</t>
+          <t>-47,15; 26,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-78,36; -26,66</t>
+          <t>-77,69; -28,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-35,69; 32,67</t>
+          <t>-36,59; 28,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,68; 41,68</t>
+          <t>-27,86; 36,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-62,95; -6,32</t>
+          <t>-63,99; -14,62</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,97; -0,4</t>
+          <t>-7,71; -0,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,75; -2,45</t>
+          <t>-9,41; -2,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 0,85</t>
+          <t>-6,72; 1,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 1,27</t>
+          <t>-5,96; 1,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 0,67</t>
+          <t>-6,27; 0,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 0,7</t>
+          <t>-6,3; 0,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,85; -0,54</t>
+          <t>-5,61; -0,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,55; -1,59</t>
+          <t>-6,55; -1,61</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,69; -0,35</t>
+          <t>-5,55; -0,17</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-78,65; 1,43</t>
+          <t>-75,9; 3,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-93,59; -37,78</t>
+          <t>-93,66; -40,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-74,76; 18,47</t>
+          <t>-69,57; 31,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-67,4; 30,79</t>
+          <t>-68,82; 30,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-69,25; 17,43</t>
+          <t>-69,66; 17,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-70,65; 21,65</t>
+          <t>-68,99; 24,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-65,62; -5,51</t>
+          <t>-64,0; -9,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-75,7; -25,76</t>
+          <t>-76,47; -27,69</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-65,42; -4,81</t>
+          <t>-63,44; -0,09</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,66; 5,65</t>
+          <t>0,31; 5,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,41; 9,71</t>
+          <t>2,34; 9,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,92; -0,97</t>
+          <t>-4,93; -0,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 4,22</t>
+          <t>-0,92; 4,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 5,01</t>
+          <t>-1,1; 4,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,12; -0,66</t>
+          <t>-5,05; -0,89</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,59; 4,23</t>
+          <t>0,56; 4,22</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,28; 6,02</t>
+          <t>1,49; 6,07</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,23; -1,19</t>
+          <t>-3,98; -1,18</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>10,8; 536,48</t>
+          <t>-0,62; 469,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>40,74; 802,86</t>
+          <t>44,06; 833,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -68,76</t>
+          <t>-100,0; -74,68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,71; 220,34</t>
+          <t>-20,07; 187,08</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-29,64; 235,01</t>
+          <t>-24,71; 187,85</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-93,82; 0,22</t>
+          <t>-92,86; -24,5</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>11,79; 210,11</t>
+          <t>10,32; 207,11</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>27,73; 290,42</t>
+          <t>31,32; 276,94</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-94,7; -51,23</t>
+          <t>-93,81; -44,25</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 4,08</t>
+          <t>-3,67; 4,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 2,56</t>
+          <t>-4,31; 2,69</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,59; -1,3</t>
+          <t>-7,25; -0,98</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 5,07</t>
+          <t>-3,95; 5,18</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 1,77</t>
+          <t>-6,25; 1,48</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,35; -1,14</t>
+          <t>-8,66; -1,48</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 3,5</t>
+          <t>-2,27; 3,57</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 1,21</t>
+          <t>-4,01; 1,14</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,23; -1,71</t>
+          <t>-6,22; -1,69</t>
         </is>
       </c>
     </row>
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-68,76; 308,43</t>
+          <t>-66,53; 308,81</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-81,01; 216,02</t>
+          <t>-83,33; 166,68</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1670,32 +1670,32 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-50,84; 199,56</t>
+          <t>-55,64; 182,06</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-76,54; 78,98</t>
+          <t>-79,98; 55,06</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-96,49; 6,32</t>
+          <t>-95,91; -8,09</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-37,6; 122,26</t>
+          <t>-39,64; 129,99</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-66,93; 45,92</t>
+          <t>-66,96; 46,49</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-97,45; -32,44</t>
+          <t>-97,28; -49,21</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 2,41</t>
+          <t>-2,28; 2,27</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 1,19</t>
+          <t>-2,99; 1,25</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 2,46</t>
+          <t>-2,19; 2,41</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 3,46</t>
+          <t>-2,22; 3,44</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,03; -0,59</t>
+          <t>-5,28; -0,48</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 1,39</t>
+          <t>-3,89; 1,38</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 2,36</t>
+          <t>-1,51; 2,51</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,33; -0,23</t>
+          <t>-3,22; -0,23</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 1,25</t>
+          <t>-2,29; 1,35</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-84,45; 447,99</t>
+          <t>-85,03; 326,99</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
@@ -1881,37 +1881,37 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-78,1; 472,74</t>
+          <t>-77,25; 427,52</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-54,69; 197,78</t>
+          <t>-51,13; 198,64</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 39,57</t>
+          <t>-100,0; -4,77</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-80,3; 85,73</t>
+          <t>-78,56; 101,85</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-42,69; 158,25</t>
+          <t>-47,26; 156,89</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-90,74; 2,04</t>
+          <t>-88,34; 3,85</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-61,49; 94,86</t>
+          <t>-61,18; 101,94</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 2,22</t>
+          <t>-2,87; 2,21</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 0,36</t>
+          <t>-4,11; 0,21</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 1,47</t>
+          <t>-3,73; 1,14</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 3,91</t>
+          <t>-2,84; 3,9</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-7,49; -1,86</t>
+          <t>-7,69; -2,0</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-7,86; -1,8</t>
+          <t>-7,8; -1,9</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 2,35</t>
+          <t>-1,89; 2,4</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-5,28; -1,54</t>
+          <t>-5,22; -1,56</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-4,74; -0,93</t>
+          <t>-4,98; -0,89</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-45,96; 58,91</t>
+          <t>-43,96; 62,01</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-67,02; 11,82</t>
+          <t>-65,88; 7,0</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-53,72; 40,46</t>
+          <t>-57,76; 29,87</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-25,71; 60,86</t>
+          <t>-28,01; 54,97</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-71,95; -25,7</t>
+          <t>-71,69; -26,44</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-73,53; -25,47</t>
+          <t>-74,0; -26,34</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-24,8; 41,43</t>
+          <t>-24,1; 42,43</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-65,94; -25,95</t>
+          <t>-65,19; -26,31</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-60,54; -15,73</t>
+          <t>-62,39; -15,16</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 0,77</t>
+          <t>-3,87; 0,66</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-5,03; -0,94</t>
+          <t>-5,45; -1,22</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-6,61; -2,9</t>
+          <t>-6,99; -3,06</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 3,33</t>
+          <t>-1,4; 3,69</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 0,7</t>
+          <t>-3,52; 0,77</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-6,14; -2,42</t>
+          <t>-6,22; -2,54</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 1,43</t>
+          <t>-1,91; 1,48</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-3,82; -0,68</t>
+          <t>-3,72; -0,86</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-6,06; -3,27</t>
+          <t>-5,79; -3,24</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-54,97; 16,84</t>
+          <t>-53,55; 15,15</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-72,69; -18,05</t>
+          <t>-73,03; -22,28</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-93,26; -57,69</t>
+          <t>-93,54; -57,08</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-24,85; 73,46</t>
+          <t>-21,28; 88,53</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-54,07; 18,02</t>
+          <t>-54,33; 21,32</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-87,03; -54,81</t>
+          <t>-86,72; -53,42</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-28,79; 30,05</t>
+          <t>-28,35; 31,28</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-59,81; -13,7</t>
+          <t>-57,08; -17,24</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-88,06; -64,41</t>
+          <t>-87,68; -64,67</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 0,99</t>
+          <t>-1,13; 1,02</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 0,56</t>
+          <t>-1,66; 0,53</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-3,46; -1,48</t>
+          <t>-3,43; -1,48</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 1,46</t>
+          <t>-0,96; 1,44</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-2,47; -0,37</t>
+          <t>-2,39; -0,33</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-4,52; -2,46</t>
+          <t>-4,52; -2,56</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 0,87</t>
+          <t>-0,74; 0,91</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-1,72; -0,18</t>
+          <t>-1,78; -0,21</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-3,67; -2,28</t>
+          <t>-3,62; -2,28</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-20,05; 24,23</t>
+          <t>-21,07; 24,6</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-28,84; 13,14</t>
+          <t>-30,81; 12,63</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-63,9; -34,03</t>
+          <t>-63,98; -33,29</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 27,51</t>
+          <t>-15,21; 26,37</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-37,97; -7,14</t>
+          <t>-36,66; -6,2</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-67,48; -44,35</t>
+          <t>-67,49; -46,65</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-11,46; 17,32</t>
+          <t>-12,72; 18,23</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-29,75; -3,53</t>
+          <t>-30,46; -4,4</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-63,54; -46,42</t>
+          <t>-62,6; -45,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Hacinamiento_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/Hacinamiento_R-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,02; 8,68</t>
+          <t>0,2; 8,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,14; -1,53</t>
+          <t>-7,72; -1,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 9,03</t>
+          <t>1,0; 9,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 4,39</t>
+          <t>-2,96; 4,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,83; 7,92</t>
+          <t>1,72; 7,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 0,55</t>
+          <t>-3,98; 0,71</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 361,08</t>
+          <t>-11,86; 399,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-97,99; -73,21</t>
+          <t>-98,55; -77,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,12; 608,92</t>
+          <t>4,4; 658,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-66,74; 367,1</t>
+          <t>-71,35; 370,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>34,06; 353,51</t>
+          <t>33,85; 360,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-81,87; 46,84</t>
+          <t>-80,5; 62,48</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 4,56</t>
+          <t>-1,63; 4,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 4,44</t>
+          <t>-1,58; 4,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 2,32</t>
+          <t>-3,76; 2,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 0,33</t>
+          <t>-5,86; 0,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 1,67</t>
+          <t>-4,6; 2,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,78; -2,19</t>
+          <t>-7,69; -2,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 1,6</t>
+          <t>-2,9; 1,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 2,17</t>
+          <t>-2,13; 2,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,22; -0,98</t>
+          <t>-5,01; -0,66</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-24,33; 109,28</t>
+          <t>-26,14; 103,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-25,54; 110,01</t>
+          <t>-24,74; 111,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-56,93; 55,77</t>
+          <t>-55,95; 59,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-58,81; 5,71</t>
+          <t>-58,97; 5,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-47,15; 26,95</t>
+          <t>-46,54; 34,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-77,69; -28,63</t>
+          <t>-77,29; -24,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-36,59; 28,56</t>
+          <t>-36,76; 29,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,86; 36,96</t>
+          <t>-26,46; 40,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-63,99; -14,62</t>
+          <t>-64,13; -10,6</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,71; -0,16</t>
+          <t>-7,78; -0,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,41; -2,37</t>
+          <t>-9,4; -2,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 1,35</t>
+          <t>-6,64; 1,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 1,35</t>
+          <t>-6,03; 1,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 0,74</t>
+          <t>-6,45; 1,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 0,89</t>
+          <t>-6,39; 0,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,61; -0,64</t>
+          <t>-5,84; -0,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,55; -1,61</t>
+          <t>-6,67; -1,75</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,55; -0,17</t>
+          <t>-5,73; -0,58</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-75,9; 3,41</t>
+          <t>-76,49; -4,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-93,66; -40,6</t>
+          <t>-92,59; -40,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-69,57; 31,19</t>
+          <t>-70,59; 28,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-68,82; 30,31</t>
+          <t>-66,85; 30,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-69,66; 17,73</t>
+          <t>-68,68; 29,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-68,99; 24,58</t>
+          <t>-69,24; 15,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-64,0; -9,51</t>
+          <t>-67,03; -6,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-76,47; -27,69</t>
+          <t>-74,92; -26,97</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-63,44; -0,09</t>
+          <t>-64,25; -6,83</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,31; 5,69</t>
+          <t>0,4; 5,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,34; 9,29</t>
+          <t>2,09; 9,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,93; -0,83</t>
+          <t>-4,74; -0,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 4,09</t>
+          <t>-1,18; 3,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 4,47</t>
+          <t>-1,15; 4,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,05; -0,89</t>
+          <t>-5,1; -0,82</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,56; 4,22</t>
+          <t>0,45; 4,16</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,49; 6,07</t>
+          <t>1,49; 6,01</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,98; -1,18</t>
+          <t>-3,97; -1,16</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 469,13</t>
+          <t>-5,65; 466,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>44,06; 833,38</t>
+          <t>39,64; 771,92</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -74,68</t>
+          <t>-100,0; -67,85</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-20,07; 187,08</t>
+          <t>-24,35; 184,92</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-24,71; 187,85</t>
+          <t>-26,14; 193,31</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-92,86; -24,5</t>
+          <t>-92,52; -20,69</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,32; 207,11</t>
+          <t>5,69; 201,9</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>31,32; 276,94</t>
+          <t>33,74; 291,76</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-93,81; -44,25</t>
+          <t>-93,85; -49,55</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 4,0</t>
+          <t>-3,56; 4,04</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 2,69</t>
+          <t>-4,25; 2,92</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,25; -0,98</t>
+          <t>-7,34; -1,38</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 5,18</t>
+          <t>-3,59; 5,49</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 1,48</t>
+          <t>-6,56; 1,51</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,66; -1,48</t>
+          <t>-8,71; -1,16</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 3,57</t>
+          <t>-2,43; 3,6</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 1,14</t>
+          <t>-4,57; 1,03</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,22; -1,69</t>
+          <t>-6,6; -1,86</t>
         </is>
       </c>
     </row>
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-66,53; 308,81</t>
+          <t>-68,33; 265,86</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-83,33; 166,68</t>
+          <t>-76,45; 209,62</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1670,32 +1670,32 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-55,64; 182,06</t>
+          <t>-49,12; 193,42</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-79,98; 55,06</t>
+          <t>-81,87; 48,29</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-95,91; -8,09</t>
+          <t>-96,56; 12,73</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-39,64; 129,99</t>
+          <t>-41,69; 135,14</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-66,96; 46,49</t>
+          <t>-72,39; 43,08</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-97,28; -49,21</t>
+          <t>-97,6; -25,99</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 2,27</t>
+          <t>-2,38; 2,31</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 1,25</t>
+          <t>-3,28; 1,18</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 2,41</t>
+          <t>-2,5; 2,48</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 3,44</t>
+          <t>-2,52; 3,16</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,28; -0,48</t>
+          <t>-5,31; -0,78</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 1,38</t>
+          <t>-3,79; 1,37</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 2,51</t>
+          <t>-1,36; 2,31</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,22; -0,23</t>
+          <t>-3,24; -0,21</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 1,35</t>
+          <t>-2,19; 1,11</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-85,03; 326,99</t>
+          <t>-100,0; 368,62</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 236,23</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-77,25; 427,52</t>
+          <t>-79,49; 493,0</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-51,13; 198,64</t>
+          <t>-56,86; 179,06</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -4,77</t>
+          <t>-100,0; -5,25</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-78,56; 101,85</t>
+          <t>-78,74; 93,21</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-47,26; 156,89</t>
+          <t>-41,67; 150,12</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-88,34; 3,85</t>
+          <t>-90,58; 0,4</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-61,18; 101,94</t>
+          <t>-63,9; 79,33</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 2,21</t>
+          <t>-2,94; 1,99</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 0,21</t>
+          <t>-4,37; 0,31</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 1,14</t>
+          <t>-3,83; 1,14</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 3,9</t>
+          <t>-2,58; 3,85</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-7,69; -2,0</t>
+          <t>-7,64; -2,06</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-7,8; -1,9</t>
+          <t>-7,74; -1,75</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 2,4</t>
+          <t>-1,98; 2,29</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-5,22; -1,56</t>
+          <t>-5,24; -1,43</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-4,98; -0,89</t>
+          <t>-4,91; -0,94</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-43,96; 62,01</t>
+          <t>-45,81; 54,84</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-65,88; 7,0</t>
+          <t>-66,57; 11,76</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-57,76; 29,87</t>
+          <t>-58,85; 28,74</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-28,01; 54,97</t>
+          <t>-25,95; 58,49</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-71,69; -26,44</t>
+          <t>-73,1; -27,35</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-74,0; -26,34</t>
+          <t>-73,87; -25,99</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-24,1; 42,43</t>
+          <t>-25,4; 42,43</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-65,19; -26,31</t>
+          <t>-65,39; -24,33</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-62,39; -15,16</t>
+          <t>-62,15; -16,29</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 0,66</t>
+          <t>-3,84; 0,72</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-5,45; -1,22</t>
+          <t>-5,3; -1,11</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-6,99; -3,06</t>
+          <t>-6,83; -3,05</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 3,69</t>
+          <t>-1,42; 3,36</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 0,77</t>
+          <t>-3,56; 0,7</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-6,22; -2,54</t>
+          <t>-6,0; -2,41</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 1,48</t>
+          <t>-1,79; 1,41</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-3,72; -0,86</t>
+          <t>-3,77; -0,82</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-5,79; -3,24</t>
+          <t>-5,8; -3,2</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-53,55; 15,15</t>
+          <t>-52,8; 15,6</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-73,03; -22,28</t>
+          <t>-72,44; -19,76</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-93,54; -57,08</t>
+          <t>-94,05; -58,36</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-21,28; 88,53</t>
+          <t>-21,79; 74,64</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-54,33; 21,32</t>
+          <t>-53,45; 16,17</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-86,72; -53,42</t>
+          <t>-86,92; -52,16</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-28,35; 31,28</t>
+          <t>-28,31; 29,99</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-57,08; -17,24</t>
+          <t>-57,19; -15,06</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-87,68; -64,67</t>
+          <t>-87,41; -64,89</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 1,02</t>
+          <t>-1,18; 0,96</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 0,53</t>
+          <t>-1,56; 0,53</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-3,43; -1,48</t>
+          <t>-3,47; -1,53</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 1,44</t>
+          <t>-1,01; 1,39</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-2,39; -0,33</t>
+          <t>-2,51; -0,3</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-4,52; -2,56</t>
+          <t>-4,58; -2,65</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 0,91</t>
+          <t>-0,71; 0,92</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-1,78; -0,21</t>
+          <t>-1,77; -0,24</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-3,62; -2,28</t>
+          <t>-3,69; -2,29</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-21,07; 24,6</t>
+          <t>-22,44; 22,54</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-30,81; 12,63</t>
+          <t>-28,81; 12,5</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-63,98; -33,29</t>
+          <t>-63,73; -34,76</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-15,21; 26,37</t>
+          <t>-14,74; 25,58</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-36,66; -6,2</t>
+          <t>-37,67; -5,1</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-67,49; -46,65</t>
+          <t>-67,96; -47,06</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-12,72; 18,23</t>
+          <t>-12,27; 18,1</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-30,46; -4,4</t>
+          <t>-30,64; -4,89</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-62,6; -45,43</t>
+          <t>-62,62; -45,16</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Hacinamiento_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/Hacinamiento_R-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,2; 8,99</t>
+          <t>0,23; 9,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,72; -1,61</t>
+          <t>-7,19; -1,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 9,6</t>
+          <t>1,18; 9,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 4,09</t>
+          <t>-3,26; 3,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,72; 7,83</t>
+          <t>1,8; 7,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 0,71</t>
+          <t>-3,93; 0,51</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,86; 399,78</t>
+          <t>-3,13; 396,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-98,55; -77,53</t>
+          <t>-97,79; -73,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,4; 658,18</t>
+          <t>11,27; 683,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-71,35; 370,06</t>
+          <t>-74,16; 280,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,85; 360,69</t>
+          <t>30,67; 324,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-80,5; 62,48</t>
+          <t>-81,2; 37,79</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 4,41</t>
+          <t>-2,03; 4,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 4,61</t>
+          <t>-1,9; 4,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 2,67</t>
+          <t>-4,1; 2,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 0,25</t>
+          <t>-5,7; 0,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 2,0</t>
+          <t>-4,53; 1,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,69; -2,02</t>
+          <t>-7,83; -2,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 1,7</t>
+          <t>-2,8; 1,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 2,28</t>
+          <t>-2,14; 2,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,01; -0,66</t>
+          <t>-4,96; -0,61</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-26,14; 103,63</t>
+          <t>-29,05; 110,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-24,74; 111,01</t>
+          <t>-27,89; 100,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-55,95; 59,3</t>
+          <t>-59,23; 59,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-58,97; 5,98</t>
+          <t>-57,38; 7,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-46,54; 34,26</t>
+          <t>-47,97; 34,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-77,29; -24,13</t>
+          <t>-78,36; -26,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-36,76; 29,35</t>
+          <t>-35,69; 32,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,46; 40,68</t>
+          <t>-27,68; 41,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-64,13; -10,6</t>
+          <t>-62,95; -6,32</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,78; -0,43</t>
+          <t>-7,97; -0,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,4; -2,52</t>
+          <t>-9,75; -2,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 1,1</t>
+          <t>-7,62; 0,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 1,31</t>
+          <t>-6,02; 1,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 1,02</t>
+          <t>-6,4; 0,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 0,45</t>
+          <t>-6,47; 0,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,84; -0,54</t>
+          <t>-5,85; -0,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,67; -1,75</t>
+          <t>-6,55; -1,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,73; -0,58</t>
+          <t>-5,69; -0,35</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-76,49; -4,07</t>
+          <t>-78,65; 1,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-92,59; -40,99</t>
+          <t>-93,59; -37,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-70,59; 28,51</t>
+          <t>-74,76; 18,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-66,85; 30,16</t>
+          <t>-67,4; 30,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-68,68; 29,38</t>
+          <t>-69,25; 17,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-69,24; 15,27</t>
+          <t>-70,65; 21,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-67,03; -6,12</t>
+          <t>-65,62; -5,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-74,92; -26,97</t>
+          <t>-75,7; -25,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-64,25; -6,83</t>
+          <t>-65,42; -4,81</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,4; 5,66</t>
+          <t>0,66; 5,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,09; 9,3</t>
+          <t>2,41; 9,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,74; -0,93</t>
+          <t>-4,92; -0,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 3,93</t>
+          <t>-0,95; 4,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 4,61</t>
+          <t>-1,36; 5,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,1; -0,82</t>
+          <t>-5,12; -0,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,16</t>
+          <t>0,59; 4,23</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,49; 6,01</t>
+          <t>1,28; 6,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,97; -1,16</t>
+          <t>-4,23; -1,19</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 466,19</t>
+          <t>10,8; 536,48</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>39,64; 771,92</t>
+          <t>40,74; 802,86</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -67,85</t>
+          <t>-100,0; -68,76</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-24,35; 184,92</t>
+          <t>-21,71; 220,34</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-26,14; 193,31</t>
+          <t>-29,64; 235,01</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-92,52; -20,69</t>
+          <t>-93,82; 0,22</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,69; 201,9</t>
+          <t>11,79; 210,11</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>33,74; 291,76</t>
+          <t>27,73; 290,42</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-93,85; -49,55</t>
+          <t>-94,7; -51,23</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 4,04</t>
+          <t>-3,8; 4,08</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 2,92</t>
+          <t>-4,59; 2,56</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,34; -1,38</t>
+          <t>-6,59; -1,3</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 5,49</t>
+          <t>-3,79; 5,07</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 1,51</t>
+          <t>-6,08; 1,77</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,71; -1,16</t>
+          <t>-8,35; -1,14</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 3,6</t>
+          <t>-2,33; 3,5</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 1,03</t>
+          <t>-4,18; 1,21</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,6; -1,86</t>
+          <t>-6,23; -1,71</t>
         </is>
       </c>
     </row>
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-68,33; 265,86</t>
+          <t>-68,76; 308,43</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-76,45; 209,62</t>
+          <t>-81,01; 216,02</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1670,32 +1670,32 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-49,12; 193,42</t>
+          <t>-50,84; 199,56</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-81,87; 48,29</t>
+          <t>-76,54; 78,98</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-96,56; 12,73</t>
+          <t>-96,49; 6,32</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-41,69; 135,14</t>
+          <t>-37,6; 122,26</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-72,39; 43,08</t>
+          <t>-66,93; 45,92</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-97,6; -25,99</t>
+          <t>-97,45; -32,44</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 2,31</t>
+          <t>-2,34; 2,41</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 1,18</t>
+          <t>-2,99; 1,19</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 2,48</t>
+          <t>-2,2; 2,46</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 3,16</t>
+          <t>-2,56; 3,46</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,31; -0,78</t>
+          <t>-5,03; -0,59</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 1,37</t>
+          <t>-3,92; 1,39</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 2,31</t>
+          <t>-1,43; 2,36</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,24; -0,21</t>
+          <t>-3,33; -0,23</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 1,11</t>
+          <t>-2,14; 1,25</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 368,62</t>
+          <t>-84,45; 447,99</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 236,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-79,49; 493,0</t>
+          <t>-78,1; 472,74</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-56,86; 179,06</t>
+          <t>-54,69; 197,78</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -5,25</t>
+          <t>-100,0; 39,57</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-78,74; 93,21</t>
+          <t>-80,3; 85,73</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-41,67; 150,12</t>
+          <t>-42,69; 158,25</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-90,58; 0,4</t>
+          <t>-90,74; 2,04</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-63,9; 79,33</t>
+          <t>-61,49; 94,86</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 1,99</t>
+          <t>-2,9; 2,22</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 0,31</t>
+          <t>-4,24; 0,36</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 1,14</t>
+          <t>-3,41; 1,47</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 3,85</t>
+          <t>-2,46; 3,91</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-7,64; -2,06</t>
+          <t>-7,49; -1,86</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-7,74; -1,75</t>
+          <t>-7,86; -1,8</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 2,29</t>
+          <t>-1,97; 2,35</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-5,24; -1,43</t>
+          <t>-5,28; -1,54</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-4,91; -0,94</t>
+          <t>-4,74; -0,93</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-45,81; 54,84</t>
+          <t>-45,96; 58,91</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-66,57; 11,76</t>
+          <t>-67,02; 11,82</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-58,85; 28,74</t>
+          <t>-53,72; 40,46</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-25,95; 58,49</t>
+          <t>-25,71; 60,86</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-73,1; -27,35</t>
+          <t>-71,95; -25,7</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-73,87; -25,99</t>
+          <t>-73,53; -25,47</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-25,4; 42,43</t>
+          <t>-24,8; 41,43</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-65,39; -24,33</t>
+          <t>-65,94; -25,95</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-62,15; -16,29</t>
+          <t>-60,54; -15,73</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 0,72</t>
+          <t>-3,83; 0,77</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-5,3; -1,11</t>
+          <t>-5,03; -0,94</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-6,83; -3,05</t>
+          <t>-6,61; -2,9</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 3,36</t>
+          <t>-1,61; 3,33</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 0,7</t>
+          <t>-3,76; 0,7</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-6,0; -2,41</t>
+          <t>-6,14; -2,42</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 1,41</t>
+          <t>-1,84; 1,43</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-3,77; -0,82</t>
+          <t>-3,82; -0,68</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-5,8; -3,2</t>
+          <t>-6,06; -3,27</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-52,8; 15,6</t>
+          <t>-54,97; 16,84</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-72,44; -19,76</t>
+          <t>-72,69; -18,05</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-94,05; -58,36</t>
+          <t>-93,26; -57,69</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-21,79; 74,64</t>
+          <t>-24,85; 73,46</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-53,45; 16,17</t>
+          <t>-54,07; 18,02</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-86,92; -52,16</t>
+          <t>-87,03; -54,81</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-28,31; 29,99</t>
+          <t>-28,79; 30,05</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-57,19; -15,06</t>
+          <t>-59,81; -13,7</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-87,41; -64,89</t>
+          <t>-88,06; -64,41</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 0,96</t>
+          <t>-1,11; 0,99</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 0,53</t>
+          <t>-1,55; 0,56</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-3,47; -1,53</t>
+          <t>-3,46; -1,48</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 1,39</t>
+          <t>-1,01; 1,46</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-2,51; -0,3</t>
+          <t>-2,47; -0,37</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-4,58; -2,65</t>
+          <t>-4,52; -2,46</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 0,92</t>
+          <t>-0,66; 0,87</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-1,77; -0,24</t>
+          <t>-1,72; -0,18</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-3,69; -2,29</t>
+          <t>-3,67; -2,28</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-22,44; 22,54</t>
+          <t>-20,05; 24,23</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-28,81; 12,5</t>
+          <t>-28,84; 13,14</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-63,73; -34,76</t>
+          <t>-63,9; -34,03</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-14,74; 25,58</t>
+          <t>-15,36; 27,51</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-37,67; -5,1</t>
+          <t>-37,97; -7,14</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-67,96; -47,06</t>
+          <t>-67,48; -44,35</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-12,27; 18,1</t>
+          <t>-11,46; 17,32</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-30,64; -4,89</t>
+          <t>-29,75; -3,53</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-62,62; -45,16</t>
+          <t>-63,54; -46,42</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Hacinamiento_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/Hacinamiento_R-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,68</t>
+          <t>-3,71</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,82</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>-1,47</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 7,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,19; -1,71</t>
+          <t>-7,21; -1,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,79; 8,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 3,71</t>
+          <t>-2,57; 6,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,28; 6,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 0,51</t>
+          <t>-3,75; 1,27</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>86,36%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-92,31%</t>
+          <t>-93,2%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>166,15%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>31,85%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>119,13%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-49,98%</t>
+          <t>-42,57%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,93; 312,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-97,79; -73,51</t>
+          <t>-98,06; -76,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,05; 672,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-74,16; 280,79</t>
+          <t>-68,99; 495,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,99; 282,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-81,2; 37,79</t>
+          <t>-80,59; 78,94</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,98</t>
+          <t>-4,97</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,98</t>
+          <t>-2,82</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 2,47</t>
+          <t>-3,93; 3,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,83; -2,01</t>
+          <t>-7,79; -1,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,96; -0,61</t>
+          <t>-4,9; -0,22</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-16,24%</t>
+          <t>-11,74%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-61,7%</t>
+          <t>-61,56%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-43,52%</t>
+          <t>-41,16%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-59,23; 59,74</t>
+          <t>-57,19; 76,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-78,36; -26,66</t>
+          <t>-78,05; -26,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-62,95; -6,32</t>
+          <t>-61,87; -0,13</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,04</t>
+          <t>-2,95</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,81</t>
+          <t>-2,77</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,93</t>
+          <t>-2,86</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 0,85</t>
+          <t>-7,57; 0,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 0,7</t>
+          <t>-6,45; 0,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,69; -0,35</t>
+          <t>-5,71; -0,23</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-40,4%</t>
+          <t>-39,22%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-41,57%</t>
+          <t>-41,01%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-41,15%</t>
+          <t>-40,2%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-74,76; 18,47</t>
+          <t>-73,74; 22,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-70,65; 21,65</t>
+          <t>-70,48; 22,39</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-65,42; -4,81</t>
+          <t>-64,6; -2,71</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>-2,28</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,64</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>-2,48</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,66; 5,65</t>
+          <t>-0,95; 4,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 4,22</t>
+          <t>-2,96; 2,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,12; -0,66</t>
+          <t>-5,27; -0,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,59; 4,23</t>
+          <t>-1,15; 2,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,23; -1,19</t>
+          <t>-4,33; -1,29</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>135,33%</t>
+          <t>75,15%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-95,83%</t>
+          <t>-95,62%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>46,37%</t>
+          <t>-4,52%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-73,69%</t>
+          <t>-77,92%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>81,23%</t>
+          <t>26,57%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-80,65%</t>
+          <t>-82,7%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>10,8; 536,48</t>
+          <t>-38,51; 403,01</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -68,76</t>
+          <t>-100,0; -67,24</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,71; 220,34</t>
+          <t>-60,32; 106,23</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-93,82; 0,22</t>
+          <t>-94,89; -10,69</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>11,79; 210,11</t>
+          <t>-26,78; 127,27</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-94,7; -51,23</t>
+          <t>-95,38; -55,87</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-4,26</t>
+          <t>-4,32</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-3,77</t>
+          <t>-3,78</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,35; -1,14</t>
+          <t>-8,46; -1,26</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,23; -1,71</t>
+          <t>-6,25; -1,72</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-80,0%</t>
+          <t>-81,26%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-86,16%</t>
+          <t>-86,51%</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-96,49; 6,32</t>
+          <t>-96,85; 1,97</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-97,45; -32,44</t>
+          <t>-97,53; -29,73</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-0,36</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 2,46</t>
+          <t>-2,2; 2,42</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 1,39</t>
+          <t>-3,89; 1,42</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 1,25</t>
+          <t>-2,14; 1,24</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>19,67%</t>
+          <t>18,51%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-32,76%</t>
+          <t>-31,82%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-14,85%</t>
+          <t>-14,71%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-78,1; 472,74</t>
+          <t>-78,19; 464,23</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-80,3; 85,73</t>
+          <t>-80,34; 87,81</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-61,49; 94,86</t>
+          <t>-61,5; 93,12</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-4,61</t>
+          <t>-5,1</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-2,88</t>
+          <t>-3,21</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 1,47</t>
+          <t>-3,53; 1,34</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-7,86; -1,8</t>
+          <t>-8,56; -2,21</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-4,74; -0,93</t>
+          <t>-5,26; -1,21</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-21,01%</t>
+          <t>-23,01%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-54,14%</t>
+          <t>-59,85%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-42,12%</t>
+          <t>-46,88%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-53,72; 40,46</t>
+          <t>-55,0; 36,54</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-73,53; -25,47</t>
+          <t>-83,37; -36,61</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-60,54; -15,73</t>
+          <t>-68,21; -22,06</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-4,84</t>
+          <t>-5,07</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-4,15</t>
+          <t>-4,1</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>-4,49</t>
+          <t>-4,62</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-6,61; -2,9</t>
+          <t>-6,91; -3,24</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-6,14; -2,42</t>
+          <t>-6,09; -2,38</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-6,06; -3,27</t>
+          <t>-6,21; -3,46</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-82,52%</t>
+          <t>-86,33%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-75,49%</t>
+          <t>-74,65%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-79,1%</t>
+          <t>-81,35%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-93,26; -57,69</t>
+          <t>-96,13; -65,45</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-87,03; -54,81</t>
+          <t>-86,36; -53,39</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-88,06; -64,41</t>
+          <t>-90,24; -68,76</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-2,47</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-3,46</t>
+          <t>-3,49</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>-2,97</t>
+          <t>-3,03</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-3,46; -1,48</t>
+          <t>-3,55; -1,54</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-4,52; -2,46</t>
+          <t>-4,54; -2,41</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-3,67; -2,28</t>
+          <t>-3,76; -2,33</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-51,23%</t>
+          <t>-52,91%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-58,06%</t>
+          <t>-58,53%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>-55,0%</t>
+          <t>-56,03%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-63,9; -34,03</t>
+          <t>-66,61; -35,24</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-67,48; -44,35</t>
+          <t>-69,2; -43,85</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-63,54; -46,42</t>
+          <t>-64,93; -46,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Hacinamiento_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/Hacinamiento_R-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 7,53</t>
+          <t>-0,5; 7,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 9,14</t>
+          <t>0,53; 9,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,21; -1,75</t>
+          <t>-7,14; -1,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 8,68</t>
+          <t>0,73; 8,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,18; 9,1</t>
+          <t>1,33; 9,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 6,8</t>
+          <t>-2,31; 6,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 6,83</t>
+          <t>1,18; 6,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,8; 7,82</t>
+          <t>1,81; 8,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 1,27</t>
+          <t>-3,76; 1,33</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-16,93; 312,71</t>
+          <t>-12,5; 348,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 396,77</t>
+          <t>-4,44; 425,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-98,06; -76,69</t>
+          <t>-98,28; -74,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 672,07</t>
+          <t>9,4; 642,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,27; 683,3</t>
+          <t>5,04; 646,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-68,99; 495,22</t>
+          <t>-68,93; 499,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>21,99; 282,24</t>
+          <t>16,16; 302,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,67; 324,66</t>
+          <t>31,03; 347,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-80,59; 78,94</t>
+          <t>-79,68; 88,56</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 4,57</t>
+          <t>-1,52; 4,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 4,29</t>
+          <t>-2,03; 4,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 3,23</t>
+          <t>-3,96; 3,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 0,29</t>
+          <t>-5,66; 0,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 1,95</t>
+          <t>-4,94; 1,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,79; -1,97</t>
+          <t>-8,24; -2,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 1,73</t>
+          <t>-2,88; 1,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 2,34</t>
+          <t>-2,23; 2,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,9; -0,22</t>
+          <t>-5,13; -0,44</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-29,05; 110,35</t>
+          <t>-23,33; 109,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-27,89; 100,13</t>
+          <t>-28,61; 102,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-57,19; 76,06</t>
+          <t>-56,15; 78,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-57,38; 7,44</t>
+          <t>-59,41; 12,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-47,97; 34,33</t>
+          <t>-49,74; 24,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-78,05; -26,87</t>
+          <t>-77,89; -32,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-35,69; 32,67</t>
+          <t>-36,21; 25,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,68; 41,68</t>
+          <t>-28,51; 39,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-61,87; -0,13</t>
+          <t>-63,5; -4,67</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,97; -0,4</t>
+          <t>-7,62; -0,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,75; -2,45</t>
+          <t>-9,59; -2,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 0,98</t>
+          <t>-7,07; 1,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 1,27</t>
+          <t>-6,0; 1,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 0,67</t>
+          <t>-6,71; 0,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 0,73</t>
+          <t>-6,34; 0,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,85; -0,54</t>
+          <t>-5,56; -0,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,55; -1,59</t>
+          <t>-6,67; -1,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,71; -0,23</t>
+          <t>-5,96; -0,38</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-78,65; 1,43</t>
+          <t>-77,29; -2,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-93,59; -37,78</t>
+          <t>-93,22; -35,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-73,74; 22,38</t>
+          <t>-72,03; 34,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-67,4; 30,79</t>
+          <t>-68,48; 31,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-69,25; 17,43</t>
+          <t>-70,88; 20,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-70,48; 22,39</t>
+          <t>-71,68; 17,38</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-65,62; -5,51</t>
+          <t>-66,07; -8,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-75,7; -25,76</t>
+          <t>-75,92; -25,94</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-64,6; -2,71</t>
+          <t>-66,43; -3,12</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 4,79</t>
+          <t>-0,89; 4,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,41; 9,71</t>
+          <t>2,08; 9,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,92; -0,97</t>
+          <t>-4,61; -0,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 2,39</t>
+          <t>-3,22; 2,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 5,01</t>
+          <t>-1,43; 4,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,27; -0,9</t>
+          <t>-5,43; -1,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 2,61</t>
+          <t>-1,15; 2,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,28; 6,02</t>
+          <t>1,17; 6,05</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,33; -1,29</t>
+          <t>-3,97; -1,37</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-38,51; 403,01</t>
+          <t>-31,27; 439,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>40,74; 802,86</t>
+          <t>35,86; 850,04</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -67,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-60,32; 106,23</t>
+          <t>-61,56; 98,09</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-29,64; 235,01</t>
+          <t>-29,92; 196,79</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-94,89; -10,69</t>
+          <t>-95,39; -28,03</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-26,78; 127,27</t>
+          <t>-31,95; 116,16</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>27,73; 290,42</t>
+          <t>25,15; 277,15</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-95,38; -55,87</t>
+          <t>-95,3; -51,15</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 4,08</t>
+          <t>-3,47; 4,43</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 2,56</t>
+          <t>-4,52; 2,68</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,59; -1,3</t>
+          <t>-7,51; -1,28</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 5,07</t>
+          <t>-3,75; 5,14</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 1,77</t>
+          <t>-6,2; 1,66</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,46; -1,26</t>
+          <t>-8,77; -1,48</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 3,5</t>
+          <t>-2,44; 3,78</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 1,21</t>
+          <t>-4,29; 1,24</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,25; -1,72</t>
+          <t>-6,39; -1,77</t>
         </is>
       </c>
     </row>
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-68,76; 308,43</t>
+          <t>-67,14; 296,33</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-81,01; 216,02</t>
+          <t>-76,54; 237,24</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1670,39 +1670,39 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-50,84; 199,56</t>
+          <t>-53,45; 161,73</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-76,54; 78,98</t>
+          <t>-79,53; 60,73</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-96,85; 1,97</t>
+          <t>-97,62; -1,39</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-37,6; 122,26</t>
+          <t>-40,24; 133,46</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-66,93; 45,92</t>
+          <t>-71,37; 51,03</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-97,53; -29,73</t>
+          <t>-97,33; -37,84</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 2,41</t>
+          <t>-2,58; 2,31</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 1,19</t>
+          <t>-3,0; 1,24</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 2,42</t>
+          <t>-2,49; 2,42</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 3,46</t>
+          <t>-2,54; 3,78</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,03; -0,59</t>
+          <t>-5,04; -0,47</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 1,42</t>
+          <t>-4,17; 1,23</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 2,36</t>
+          <t>-1,55; 2,47</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,33; -0,23</t>
+          <t>-3,46; -0,17</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 1,24</t>
+          <t>-2,09; 1,41</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-84,45; 447,99</t>
+          <t>-100,0; 370,77</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
@@ -1881,44 +1881,44 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-78,19; 464,23</t>
+          <t>-76,1; 402,94</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-54,69; 197,78</t>
+          <t>-55,57; 208,0</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 39,57</t>
+          <t>-100,0; 29,41</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-80,34; 87,81</t>
+          <t>-81,28; 81,49</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-42,69; 158,25</t>
+          <t>-46,51; 178,62</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-90,74; 2,04</t>
+          <t>-90,44; 16,23</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-61,5; 93,12</t>
+          <t>-62,65; 96,55</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 2,22</t>
+          <t>-3,04; 1,83</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 0,36</t>
+          <t>-4,31; 0,23</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 1,34</t>
+          <t>-3,49; 1,15</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 3,91</t>
+          <t>-2,51; 3,98</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-7,49; -1,86</t>
+          <t>-7,65; -1,8</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-8,56; -2,21</t>
+          <t>-8,44; -2,28</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 2,35</t>
+          <t>-1,81; 2,27</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-5,28; -1,54</t>
+          <t>-5,3; -1,71</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-5,26; -1,21</t>
+          <t>-5,25; -1,27</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-45,96; 58,91</t>
+          <t>-47,13; 50,21</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-67,02; 11,82</t>
+          <t>-66,51; 8,85</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-55,0; 36,54</t>
+          <t>-54,4; 34,04</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-25,71; 60,86</t>
+          <t>-24,98; 62,32</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-71,95; -25,7</t>
+          <t>-72,6; -25,17</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-83,37; -36,61</t>
+          <t>-82,1; -33,4</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-24,8; 41,43</t>
+          <t>-22,82; 38,8</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-65,94; -25,95</t>
+          <t>-65,62; -27,22</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-68,21; -22,06</t>
+          <t>-68,92; -22,22</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 0,77</t>
+          <t>-3,53; 0,92</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-5,03; -0,94</t>
+          <t>-5,04; -0,95</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-6,91; -3,24</t>
+          <t>-7,19; -3,27</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 3,33</t>
+          <t>-1,32; 3,57</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 0,7</t>
+          <t>-3,88; 0,43</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-6,09; -2,38</t>
+          <t>-6,0; -2,38</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 1,43</t>
+          <t>-1,95; 1,43</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-3,82; -0,68</t>
+          <t>-3,99; -0,87</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-6,21; -3,46</t>
+          <t>-6,11; -3,48</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-54,97; 16,84</t>
+          <t>-50,86; 21,4</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-72,69; -18,05</t>
+          <t>-71,48; -14,24</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-96,13; -65,45</t>
+          <t>-96,43; -65,71</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-24,85; 73,46</t>
+          <t>-20,65; 82,53</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-54,07; 18,02</t>
+          <t>-56,71; 11,84</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-86,36; -53,39</t>
+          <t>-85,87; -51,74</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-28,79; 30,05</t>
+          <t>-29,18; 32,13</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-59,81; -13,7</t>
+          <t>-59,55; -16,24</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-90,24; -68,76</t>
+          <t>-90,45; -69,41</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 0,99</t>
+          <t>-1,16; 1,0</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 0,56</t>
+          <t>-1,57; 0,51</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-3,55; -1,54</t>
+          <t>-3,56; -1,52</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 1,46</t>
+          <t>-0,83; 1,47</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-2,47; -0,37</t>
+          <t>-2,64; -0,34</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-4,54; -2,41</t>
+          <t>-4,48; -2,45</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 0,87</t>
+          <t>-0,73; 0,88</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-1,72; -0,18</t>
+          <t>-1,7; -0,2</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-3,76; -2,33</t>
+          <t>-3,73; -2,27</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-20,05; 24,23</t>
+          <t>-21,69; 23,47</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-28,84; 13,14</t>
+          <t>-29,05; 11,96</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-66,61; -35,24</t>
+          <t>-66,75; -33,6</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 27,51</t>
+          <t>-12,85; 27,22</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-37,97; -7,14</t>
+          <t>-39,62; -5,81</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-69,2; -43,85</t>
+          <t>-68,98; -44,91</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-11,46; 17,32</t>
+          <t>-12,65; 17,79</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-29,75; -3,53</t>
+          <t>-29,5; -3,99</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-64,93; -46,56</t>
+          <t>-64,78; -45,72</t>
         </is>
       </c>
     </row>
